--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H2">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I2">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J2">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29252836627688</v>
+        <v>1.740822</v>
       </c>
       <c r="N2">
-        <v>1.29252836627688</v>
+        <v>5.222466</v>
       </c>
       <c r="O2">
-        <v>0.4633521751997691</v>
+        <v>0.4863878955914668</v>
       </c>
       <c r="P2">
-        <v>0.4633521751997691</v>
+        <v>0.4863878955914669</v>
       </c>
       <c r="Q2">
-        <v>11.55727014705713</v>
+        <v>35.387810275744</v>
       </c>
       <c r="R2">
-        <v>11.55727014705713</v>
+        <v>318.490292481696</v>
       </c>
       <c r="S2">
-        <v>0.000859792426565764</v>
+        <v>0.002034024798369632</v>
       </c>
       <c r="T2">
-        <v>0.000859792426565764</v>
+        <v>0.002034024798369632</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H3">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I3">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J3">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.02732863164104</v>
+        <v>1.077748</v>
       </c>
       <c r="N3">
-        <v>1.02732863164104</v>
+        <v>3.233244</v>
       </c>
       <c r="O3">
-        <v>0.3682820188210154</v>
+        <v>0.3011241710513264</v>
       </c>
       <c r="P3">
-        <v>0.3682820188210154</v>
+        <v>0.3011241710513265</v>
       </c>
       <c r="Q3">
-        <v>9.185960506137654</v>
+        <v>21.90869701156267</v>
       </c>
       <c r="R3">
-        <v>9.185960506137654</v>
+        <v>197.178273104064</v>
       </c>
       <c r="S3">
-        <v>0.0006833810383778618</v>
+        <v>0.001259270711418671</v>
       </c>
       <c r="T3">
-        <v>0.0006833810383778618</v>
+        <v>0.001259270711418671</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.941598845020151</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H4">
-        <v>8.941598845020151</v>
+        <v>60.984656</v>
       </c>
       <c r="I4">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J4">
-        <v>0.001855591648393739</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.469659131405571</v>
+        <v>0.03488166666666666</v>
       </c>
       <c r="N4">
-        <v>0.469659131405571</v>
+        <v>0.104645</v>
       </c>
       <c r="O4">
-        <v>0.1683658059792155</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="P4">
-        <v>0.1683658059792155</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="Q4">
-        <v>4.199503546929221</v>
+        <v>0.7090821474577778</v>
       </c>
       <c r="R4">
-        <v>4.199503546929221</v>
+        <v>6.38173932712</v>
       </c>
       <c r="S4">
-        <v>0.0003124181834501128</v>
+        <v>4.07567086172299E-05</v>
       </c>
       <c r="T4">
-        <v>0.0003124181834501128</v>
+        <v>4.07567086172299E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4780.81141457319</v>
+        <v>20.32821866666667</v>
       </c>
       <c r="H5">
-        <v>4780.81141457319</v>
+        <v>60.984656</v>
       </c>
       <c r="I5">
-        <v>0.9921305895274117</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="J5">
-        <v>0.9921305895274117</v>
+        <v>0.004181898474048532</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.29252836627688</v>
+        <v>0.7256300000000001</v>
       </c>
       <c r="N5">
-        <v>1.29252836627688</v>
+        <v>2.17689</v>
       </c>
       <c r="O5">
-        <v>0.4633521751997691</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="P5">
-        <v>0.4633521751997691</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="Q5">
-        <v>6179.334367156145</v>
+        <v>14.75076531109334</v>
       </c>
       <c r="R5">
-        <v>6179.334367156145</v>
+        <v>132.75688779984</v>
       </c>
       <c r="S5">
-        <v>0.4597058667397555</v>
+        <v>0.0008478462556429987</v>
       </c>
       <c r="T5">
-        <v>0.4597058667397555</v>
+        <v>0.0008478462556429987</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H6">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I6">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J6">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.02732863164104</v>
+        <v>1.740822</v>
       </c>
       <c r="N6">
-        <v>1.02732863164104</v>
+        <v>5.222466</v>
       </c>
       <c r="O6">
-        <v>0.3682820188210154</v>
+        <v>0.4863878955914668</v>
       </c>
       <c r="P6">
-        <v>0.3682820188210154</v>
+        <v>0.4863878955914669</v>
       </c>
       <c r="Q6">
-        <v>4911.46444866734</v>
+        <v>8373.173333896137</v>
       </c>
       <c r="R6">
-        <v>4911.46444866734</v>
+        <v>75358.56000506523</v>
       </c>
       <c r="S6">
-        <v>0.3653838564452394</v>
+        <v>0.4812742599636309</v>
       </c>
       <c r="T6">
-        <v>0.3653838564452394</v>
+        <v>0.481274259963631</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4780.81141457319</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H7">
-        <v>4780.81141457319</v>
+        <v>14429.688964</v>
       </c>
       <c r="I7">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J7">
-        <v>0.9921305895274117</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.469659131405571</v>
+        <v>1.077748</v>
       </c>
       <c r="N7">
-        <v>0.469659131405571</v>
+        <v>3.233244</v>
       </c>
       <c r="O7">
-        <v>0.1683658059792155</v>
+        <v>0.3011241710513264</v>
       </c>
       <c r="P7">
-        <v>0.1683658059792155</v>
+        <v>0.3011241710513265</v>
       </c>
       <c r="Q7">
-        <v>2245.351736382283</v>
+        <v>5183.856140524357</v>
       </c>
       <c r="R7">
-        <v>2245.351736382283</v>
+        <v>46654.70526471922</v>
       </c>
       <c r="S7">
-        <v>0.1670408663424169</v>
+        <v>0.2979583042535557</v>
       </c>
       <c r="T7">
-        <v>0.1670408663424169</v>
+        <v>0.2979583042535557</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.57492815666435</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H8">
-        <v>2.57492815666435</v>
+        <v>14429.688964</v>
       </c>
       <c r="I8">
-        <v>0.0005343580343443023</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J8">
-        <v>0.0005343580343443023</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.29252836627688</v>
+        <v>0.03488166666666666</v>
       </c>
       <c r="N8">
-        <v>1.29252836627688</v>
+        <v>0.104645</v>
       </c>
       <c r="O8">
-        <v>0.4633521751997691</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="P8">
-        <v>0.4633521751997691</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="Q8">
-        <v>3.32816768361371</v>
+        <v>167.7772001819756</v>
       </c>
       <c r="R8">
-        <v>3.32816768361371</v>
+        <v>1509.99480163778</v>
       </c>
       <c r="S8">
-        <v>0.0002475959575489054</v>
+        <v>0.009643518011202785</v>
       </c>
       <c r="T8">
-        <v>0.0002475959575489054</v>
+        <v>0.009643518011202785</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.57492815666435</v>
+        <v>4809.896321333334</v>
       </c>
       <c r="H9">
-        <v>2.57492815666435</v>
+        <v>14429.688964</v>
       </c>
       <c r="I9">
-        <v>0.0005343580343443023</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="J9">
-        <v>0.0005343580343443023</v>
+        <v>0.9894865072215304</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.02732863164104</v>
+        <v>0.7256300000000001</v>
       </c>
       <c r="N9">
-        <v>1.02732863164104</v>
+        <v>2.17689</v>
       </c>
       <c r="O9">
-        <v>0.3682820188210154</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="P9">
-        <v>0.3682820188210154</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="Q9">
-        <v>2.645297419759972</v>
+        <v>3490.205067649108</v>
       </c>
       <c r="R9">
-        <v>2.645297419759972</v>
+        <v>31411.84560884197</v>
       </c>
       <c r="S9">
-        <v>0.0001967944556615492</v>
+        <v>0.2006104249931409</v>
       </c>
       <c r="T9">
-        <v>0.0001967944556615492</v>
+        <v>0.2006104249931409</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.57492815666435</v>
+        <v>2.69506</v>
       </c>
       <c r="H10">
-        <v>2.57492815666435</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I10">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J10">
-        <v>0.0005343580343443023</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.469659131405571</v>
+        <v>1.740822</v>
       </c>
       <c r="N10">
-        <v>0.469659131405571</v>
+        <v>5.222466</v>
       </c>
       <c r="O10">
-        <v>0.1683658059792155</v>
+        <v>0.4863878955914668</v>
       </c>
       <c r="P10">
-        <v>0.1683658059792155</v>
+        <v>0.4863878955914669</v>
       </c>
       <c r="Q10">
-        <v>1.209338521490726</v>
+        <v>4.69161973932</v>
       </c>
       <c r="R10">
-        <v>1.209338521490726</v>
+        <v>42.22457765388</v>
       </c>
       <c r="S10">
-        <v>8.996762113384777E-05</v>
+        <v>0.0002696654814168695</v>
       </c>
       <c r="T10">
-        <v>8.996762113384777E-05</v>
+        <v>0.0002696654814168696</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>26.4040530211861</v>
+        <v>2.69506</v>
       </c>
       <c r="H11">
-        <v>26.4040530211861</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I11">
-        <v>0.005479460789850271</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J11">
-        <v>0.005479460789850271</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.29252836627688</v>
+        <v>1.077748</v>
       </c>
       <c r="N11">
-        <v>1.29252836627688</v>
+        <v>3.233244</v>
       </c>
       <c r="O11">
-        <v>0.4633521751997691</v>
+        <v>0.3011241710513264</v>
       </c>
       <c r="P11">
-        <v>0.4633521751997691</v>
+        <v>0.3011241710513265</v>
       </c>
       <c r="Q11">
-        <v>34.12798751456179</v>
+        <v>2.90459552488</v>
       </c>
       <c r="R11">
-        <v>34.12798751456179</v>
+        <v>26.14135972392</v>
       </c>
       <c r="S11">
-        <v>0.002538920075898968</v>
+        <v>0.0001669506895398084</v>
       </c>
       <c r="T11">
-        <v>0.002538920075898968</v>
+        <v>0.0001669506895398084</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.4040530211861</v>
+        <v>2.69506</v>
       </c>
       <c r="H12">
-        <v>26.4040530211861</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I12">
-        <v>0.005479460789850271</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J12">
-        <v>0.005479460789850271</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.02732863164104</v>
+        <v>0.03488166666666666</v>
       </c>
       <c r="N12">
-        <v>1.02732863164104</v>
+        <v>0.104645</v>
       </c>
       <c r="O12">
-        <v>0.3682820188210154</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="P12">
-        <v>0.3682820188210154</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="Q12">
-        <v>27.12563966003258</v>
+        <v>0.09400818456666667</v>
       </c>
       <c r="R12">
-        <v>27.12563966003258</v>
+        <v>0.8460736611000002</v>
       </c>
       <c r="S12">
-        <v>0.002017986881736654</v>
+        <v>5.403413694386582E-06</v>
       </c>
       <c r="T12">
-        <v>0.002017986881736654</v>
+        <v>5.403413694386582E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.4040530211861</v>
+        <v>2.69506</v>
       </c>
       <c r="H13">
-        <v>26.4040530211861</v>
+        <v>8.085180000000001</v>
       </c>
       <c r="I13">
-        <v>0.005479460789850271</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="J13">
-        <v>0.005479460789850271</v>
+        <v>0.000554424737665286</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.469659131405571</v>
+        <v>0.7256300000000001</v>
       </c>
       <c r="N13">
-        <v>0.469659131405571</v>
+        <v>2.17689</v>
       </c>
       <c r="O13">
-        <v>0.1683658059792155</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="P13">
-        <v>0.1683658059792155</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="Q13">
-        <v>12.40090460751691</v>
+        <v>1.9556163878</v>
       </c>
       <c r="R13">
-        <v>12.40090460751691</v>
+        <v>17.6005474902</v>
       </c>
       <c r="S13">
-        <v>0.0009225538322146495</v>
+        <v>0.0001124051530142215</v>
       </c>
       <c r="T13">
-        <v>0.0009225538322146495</v>
+        <v>0.0001124051530142215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>28.08283533333333</v>
+      </c>
+      <c r="H14">
+        <v>84.24850599999999</v>
+      </c>
+      <c r="I14">
+        <v>0.005777169566755752</v>
+      </c>
+      <c r="J14">
+        <v>0.005777169566755752</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.740822</v>
+      </c>
+      <c r="N14">
+        <v>5.222466</v>
+      </c>
+      <c r="O14">
+        <v>0.4863878955914668</v>
+      </c>
+      <c r="P14">
+        <v>0.4863878955914669</v>
+      </c>
+      <c r="Q14">
+        <v>48.88721757064399</v>
+      </c>
+      <c r="R14">
+        <v>439.9849581357959</v>
+      </c>
+      <c r="S14">
+        <v>0.002809945348049396</v>
+      </c>
+      <c r="T14">
+        <v>0.002809945348049397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>28.08283533333333</v>
+      </c>
+      <c r="H15">
+        <v>84.24850599999999</v>
+      </c>
+      <c r="I15">
+        <v>0.005777169566755752</v>
+      </c>
+      <c r="J15">
+        <v>0.005777169566755752</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.077748</v>
+      </c>
+      <c r="N15">
+        <v>3.233244</v>
+      </c>
+      <c r="O15">
+        <v>0.3011241710513264</v>
+      </c>
+      <c r="P15">
+        <v>0.3011241710513265</v>
+      </c>
+      <c r="Q15">
+        <v>30.26621961482933</v>
+      </c>
+      <c r="R15">
+        <v>272.395976533464</v>
+      </c>
+      <c r="S15">
+        <v>0.001739645396812277</v>
+      </c>
+      <c r="T15">
+        <v>0.001739645396812277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>28.08283533333333</v>
+      </c>
+      <c r="H16">
+        <v>84.24850599999999</v>
+      </c>
+      <c r="I16">
+        <v>0.005777169566755752</v>
+      </c>
+      <c r="J16">
+        <v>0.005777169566755752</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03488166666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.104645</v>
+      </c>
+      <c r="O16">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="P16">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="Q16">
+        <v>0.9795761011522222</v>
+      </c>
+      <c r="R16">
+        <v>8.81618491037</v>
+      </c>
+      <c r="S16">
+        <v>5.63041924919433E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.63041924919433E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>28.08283533333333</v>
+      </c>
+      <c r="H17">
+        <v>84.24850599999999</v>
+      </c>
+      <c r="I17">
+        <v>0.005777169566755752</v>
+      </c>
+      <c r="J17">
+        <v>0.005777169566755752</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.7256300000000001</v>
+      </c>
+      <c r="N17">
+        <v>2.17689</v>
+      </c>
+      <c r="O17">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="P17">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="Q17">
+        <v>20.37774780292667</v>
+      </c>
+      <c r="R17">
+        <v>183.39973022634</v>
+      </c>
+      <c r="S17">
+        <v>0.001171274629402135</v>
+      </c>
+      <c r="T17">
+        <v>0.001171274629402135</v>
       </c>
     </row>
   </sheetData>
